--- a/PetRegistrationFinal.xlsx
+++ b/PetRegistrationFinal.xlsx
@@ -787,7 +787,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,6 +809,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,7 +944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -993,18 +1005,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1023,9 +1062,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1035,39 +1071,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1077,14 +1080,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1393,8 +1408,8 @@
   <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48:F48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1433,20 +1448,20 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:27" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="42" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="51" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="16"/>
@@ -1472,12 +1487,12 @@
       <c r="AA2" s="18"/>
     </row>
     <row r="3" spans="1:27" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="16"/>
       <c r="H3" s="13"/>
       <c r="I3" s="17"/>
@@ -1501,12 +1516,12 @@
       <c r="AA3" s="18"/>
     </row>
     <row r="4" spans="1:27" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="16"/>
       <c r="H4" s="13"/>
       <c r="I4" s="17"/>
@@ -1530,12 +1545,12 @@
       <c r="AA4" s="18"/>
     </row>
     <row r="5" spans="1:27" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="16"/>
       <c r="H5" s="13"/>
       <c r="I5" s="17"/>
@@ -1559,12 +1574,12 @@
       <c r="AA5" s="18"/>
     </row>
     <row r="6" spans="1:27" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="16"/>
       <c r="H6" s="13"/>
       <c r="I6" s="17"/>
@@ -1588,12 +1603,12 @@
       <c r="AA6" s="18"/>
     </row>
     <row r="7" spans="1:27" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="16"/>
       <c r="H7" s="13"/>
       <c r="I7" s="17"/>
@@ -1617,12 +1632,12 @@
       <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="1:27" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="16"/>
       <c r="H8" s="13"/>
       <c r="I8" s="17"/>
@@ -1646,12 +1661,12 @@
       <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="1:27" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="16"/>
       <c r="H9" s="13"/>
       <c r="I9" s="17"/>
@@ -1675,12 +1690,12 @@
       <c r="AA9" s="18"/>
     </row>
     <row r="10" spans="1:27" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="16"/>
       <c r="H10" s="13"/>
       <c r="I10" s="17"/>
@@ -1704,12 +1719,12 @@
       <c r="AA10" s="18"/>
     </row>
     <row r="11" spans="1:27" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="16"/>
       <c r="H11" s="13"/>
       <c r="I11" s="17"/>
@@ -1733,14 +1748,14 @@
       <c r="AA11" s="18"/>
     </row>
     <row r="12" spans="1:27" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="16"/>
       <c r="H12" s="13"/>
       <c r="I12" s="17"/>
@@ -1767,17 +1782,17 @@
       <c r="A13" s="21">
         <v>2</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24" t="s">
+      <c r="D13" s="53"/>
+      <c r="E13" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="19"/>
@@ -1803,12 +1818,12 @@
       <c r="AA13" s="18"/>
     </row>
     <row r="14" spans="1:27" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
       <c r="I14" s="17"/>
@@ -1835,17 +1850,17 @@
       <c r="A15" s="21">
         <v>3</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="22" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="16"/>
@@ -1871,12 +1886,12 @@
       <c r="AA15" s="18"/>
     </row>
     <row r="16" spans="1:27" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="16"/>
       <c r="H16" s="13"/>
       <c r="I16" s="17"/>
@@ -1903,17 +1918,17 @@
       <c r="A17" s="21">
         <v>4</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="22" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="16"/>
@@ -1939,12 +1954,12 @@
       <c r="AA17" s="18"/>
     </row>
     <row r="18" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
       <c r="I18" s="17"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
@@ -1969,17 +1984,17 @@
       <c r="A19" s="10">
         <v>5</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="22" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="17"/>
@@ -2003,14 +2018,14 @@
       <c r="AA19" s="5"/>
     </row>
     <row r="20" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
       <c r="I20" s="17"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
@@ -2035,17 +2050,17 @@
       <c r="A21" s="10">
         <v>6</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="22" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="20"/>
@@ -2070,12 +2085,12 @@
       <c r="AA21" s="5"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
       <c r="I22" s="17"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
@@ -2100,17 +2115,17 @@
       <c r="A23" s="10">
         <v>7</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="22" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="20"/>
@@ -2135,12 +2150,12 @@
       <c r="AA23" s="5"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
       <c r="I24" s="17"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
@@ -2165,17 +2180,17 @@
       <c r="A25" s="10">
         <v>8</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="23" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="17"/>
@@ -2199,12 +2214,12 @@
       <c r="AA25" s="5"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
       <c r="I26" s="17"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
@@ -2229,15 +2244,15 @@
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="22" t="s">
         <v>23</v>
       </c>
       <c r="I27" s="17"/>
@@ -2260,52 +2275,52 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
+    <row r="28" spans="1:27" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
     </row>
     <row r="29" spans="1:27" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>10</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I29" s="17"/>
@@ -2329,12 +2344,12 @@
       <c r="AA29" s="5"/>
     </row>
     <row r="30" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
       <c r="I30" s="17"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
@@ -2359,17 +2374,17 @@
       <c r="A31" s="10">
         <v>11</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="22" t="s">
         <v>45</v>
       </c>
       <c r="I31" s="17"/>
@@ -2393,14 +2408,14 @@
       <c r="AA31" s="5"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="33"/>
       <c r="I32" s="17"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
@@ -2425,21 +2440,21 @@
       <c r="A33" s="10">
         <v>12</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25" t="s">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
@@ -2460,12 +2475,12 @@
       <c r="AA33" s="5"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
       <c r="I34" s="17"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
@@ -2490,17 +2505,17 @@
       <c r="A35" s="10">
         <v>13</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25" t="s">
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="17"/>
@@ -2524,12 +2539,12 @@
       <c r="AA35" s="5"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
       <c r="I36" s="17"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
@@ -2554,17 +2569,17 @@
       <c r="A37" s="10">
         <v>14</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="23" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="17"/>
@@ -2589,11 +2604,11 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
       <c r="I38" s="17"/>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
@@ -2618,23 +2633,23 @@
       <c r="A39" s="10">
         <v>15</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
       <c r="I39" s="17"/>
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
@@ -2657,11 +2672,11 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
       <c r="I40" s="17"/>
       <c r="J40" s="18"/>
       <c r="K40" s="18"/>
@@ -2686,21 +2701,21 @@
       <c r="A41" s="10">
         <v>16</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25" t="s">
+      <c r="D41" s="23"/>
+      <c r="E41" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
       <c r="I41" s="17"/>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
@@ -2722,14 +2737,14 @@
       <c r="AA41" s="5"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="33"/>
       <c r="I42" s="17"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
@@ -2754,17 +2769,17 @@
       <c r="A43" s="10">
         <v>17</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="24" t="s">
+      <c r="D43" s="23"/>
+      <c r="E43" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I43" s="17"/>
@@ -2788,14 +2803,14 @@
       <c r="AA43" s="5"/>
     </row>
     <row r="44" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="41"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="33"/>
       <c r="I44" s="17"/>
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
@@ -2820,17 +2835,17 @@
       <c r="A45" s="10">
         <v>18</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="22" t="s">
         <v>65</v>
       </c>
       <c r="I45" s="17"/>
@@ -2854,12 +2869,12 @@
       <c r="AA45" s="5"/>
     </row>
     <row r="46" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="38"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="26"/>
       <c r="I46" s="17"/>
       <c r="J46" s="18"/>
       <c r="K46" s="18"/>
@@ -2884,17 +2899,17 @@
       <c r="A47" s="10">
         <v>19</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="22" t="s">
         <v>23</v>
       </c>
       <c r="I47" s="17"/>
@@ -2918,14 +2933,14 @@
       <c r="AA47" s="5"/>
     </row>
     <row r="48" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="33"/>
       <c r="I48" s="17"/>
       <c r="J48" s="18"/>
       <c r="K48" s="18"/>
@@ -2950,17 +2965,17 @@
       <c r="A49" s="10">
         <v>20</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24" t="s">
+      <c r="D49" s="22"/>
+      <c r="E49" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="22" t="s">
         <v>58</v>
       </c>
       <c r="I49" s="17"/>
@@ -2999,21 +3014,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="A12:F12"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="B38:F38"/>
@@ -3026,6 +3026,21 @@
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/PetRegistrationFinal.xlsx
+++ b/PetRegistrationFinal.xlsx
@@ -661,20 +661,8 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The system indicates an error
+    <t xml:space="preserve">The system indicates an error
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(The system accepts special characters in the Pet Owner field)</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -808,12 +796,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -821,6 +803,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1005,101 +993,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1408,8 +1411,8 @@
   <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13:F13"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="B41:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1448,20 +1451,20 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:27" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="42" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="16"/>
@@ -1487,12 +1490,12 @@
       <c r="AA2" s="18"/>
     </row>
     <row r="3" spans="1:27" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="16"/>
       <c r="H3" s="13"/>
       <c r="I3" s="17"/>
@@ -1516,12 +1519,12 @@
       <c r="AA3" s="18"/>
     </row>
     <row r="4" spans="1:27" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="16"/>
       <c r="H4" s="13"/>
       <c r="I4" s="17"/>
@@ -1545,12 +1548,12 @@
       <c r="AA4" s="18"/>
     </row>
     <row r="5" spans="1:27" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="16"/>
       <c r="H5" s="13"/>
       <c r="I5" s="17"/>
@@ -1574,12 +1577,12 @@
       <c r="AA5" s="18"/>
     </row>
     <row r="6" spans="1:27" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="16"/>
       <c r="H6" s="13"/>
       <c r="I6" s="17"/>
@@ -1603,12 +1606,12 @@
       <c r="AA6" s="18"/>
     </row>
     <row r="7" spans="1:27" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="16"/>
       <c r="H7" s="13"/>
       <c r="I7" s="17"/>
@@ -1632,12 +1635,12 @@
       <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="1:27" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="16"/>
       <c r="H8" s="13"/>
       <c r="I8" s="17"/>
@@ -1661,12 +1664,12 @@
       <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="1:27" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="16"/>
       <c r="H9" s="13"/>
       <c r="I9" s="17"/>
@@ -1690,12 +1693,12 @@
       <c r="AA9" s="18"/>
     </row>
     <row r="10" spans="1:27" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="16"/>
       <c r="H10" s="13"/>
       <c r="I10" s="17"/>
@@ -1719,12 +1722,12 @@
       <c r="AA10" s="18"/>
     </row>
     <row r="11" spans="1:27" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="16"/>
       <c r="H11" s="13"/>
       <c r="I11" s="17"/>
@@ -1748,14 +1751,14 @@
       <c r="AA11" s="18"/>
     </row>
     <row r="12" spans="1:27" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="38"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="16"/>
       <c r="H12" s="13"/>
       <c r="I12" s="17"/>
@@ -1782,17 +1785,17 @@
       <c r="A13" s="21">
         <v>2</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="25" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="19"/>
@@ -1818,12 +1821,12 @@
       <c r="AA13" s="18"/>
     </row>
     <row r="14" spans="1:27" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
       <c r="I14" s="17"/>
@@ -1850,17 +1853,17 @@
       <c r="A15" s="21">
         <v>3</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="23" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="16"/>
@@ -1886,12 +1889,12 @@
       <c r="AA15" s="18"/>
     </row>
     <row r="16" spans="1:27" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="16"/>
       <c r="H16" s="13"/>
       <c r="I16" s="17"/>
@@ -1918,17 +1921,17 @@
       <c r="A17" s="21">
         <v>4</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="25" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="16"/>
@@ -1954,12 +1957,12 @@
       <c r="AA17" s="18"/>
     </row>
     <row r="18" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
       <c r="I18" s="17"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
@@ -1984,17 +1987,17 @@
       <c r="A19" s="10">
         <v>5</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="17"/>
@@ -2018,14 +2021,14 @@
       <c r="AA19" s="5"/>
     </row>
     <row r="20" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
       <c r="I20" s="17"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
@@ -2050,17 +2053,17 @@
       <c r="A21" s="10">
         <v>6</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="25" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="20"/>
@@ -2085,12 +2088,12 @@
       <c r="AA21" s="5"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
       <c r="I22" s="17"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
@@ -2115,17 +2118,17 @@
       <c r="A23" s="10">
         <v>7</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="23" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="20"/>
@@ -2150,12 +2153,12 @@
       <c r="AA23" s="5"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
       <c r="I24" s="17"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
@@ -2180,17 +2183,17 @@
       <c r="A25" s="10">
         <v>8</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23" t="s">
+      <c r="D25" s="53"/>
+      <c r="E25" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="53" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="17"/>
@@ -2214,12 +2217,12 @@
       <c r="AA25" s="5"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
       <c r="I26" s="17"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
@@ -2244,15 +2247,15 @@
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="23" t="s">
         <v>23</v>
       </c>
       <c r="I27" s="17"/>
@@ -2275,52 +2278,52 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44" t="s">
+    <row r="28" spans="1:27" s="40" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
     </row>
     <row r="29" spans="1:27" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>10</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I29" s="17"/>
@@ -2344,12 +2347,12 @@
       <c r="AA29" s="5"/>
     </row>
     <row r="30" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
       <c r="I30" s="17"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
@@ -2374,17 +2377,17 @@
       <c r="A31" s="10">
         <v>11</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23" t="s">
+      <c r="D31" s="54"/>
+      <c r="E31" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="23" t="s">
         <v>45</v>
       </c>
       <c r="I31" s="17"/>
@@ -2408,14 +2411,14 @@
       <c r="AA31" s="5"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
       <c r="I32" s="17"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
@@ -2440,21 +2443,21 @@
       <c r="A33" s="10">
         <v>12</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23" t="s">
+      <c r="D33" s="53"/>
+      <c r="E33" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
@@ -2475,12 +2478,12 @@
       <c r="AA33" s="5"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
       <c r="I34" s="17"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
@@ -2505,17 +2508,17 @@
       <c r="A35" s="10">
         <v>13</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23" t="s">
+      <c r="D35" s="54"/>
+      <c r="E35" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="23" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="17"/>
@@ -2539,12 +2542,12 @@
       <c r="AA35" s="5"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="26"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
       <c r="I36" s="17"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
@@ -2569,17 +2572,17 @@
       <c r="A37" s="10">
         <v>14</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23" t="s">
+      <c r="D37" s="53"/>
+      <c r="E37" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="53" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="17"/>
@@ -2604,11 +2607,11 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
       <c r="I38" s="17"/>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
@@ -2633,23 +2636,23 @@
       <c r="A39" s="10">
         <v>15</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
       <c r="I39" s="17"/>
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
@@ -2672,11 +2675,11 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
       <c r="I40" s="17"/>
       <c r="J40" s="18"/>
       <c r="K40" s="18"/>
@@ -2701,21 +2704,21 @@
       <c r="A41" s="10">
         <v>16</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23" t="s">
+      <c r="D41" s="57"/>
+      <c r="E41" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
       <c r="I41" s="17"/>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
@@ -2737,14 +2740,14 @@
       <c r="AA41" s="5"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
       <c r="I42" s="17"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
@@ -2769,17 +2772,17 @@
       <c r="A43" s="10">
         <v>17</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="22" t="s">
+      <c r="D43" s="54"/>
+      <c r="E43" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="23" t="s">
         <v>28</v>
       </c>
       <c r="I43" s="17"/>
@@ -2803,14 +2806,14 @@
       <c r="AA43" s="5"/>
     </row>
     <row r="44" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="33"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="37"/>
       <c r="I44" s="17"/>
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
@@ -2835,17 +2838,17 @@
       <c r="A45" s="10">
         <v>18</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22" t="s">
+      <c r="D45" s="25"/>
+      <c r="E45" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="25" t="s">
         <v>65</v>
       </c>
       <c r="I45" s="17"/>
@@ -2869,12 +2872,12 @@
       <c r="AA45" s="5"/>
     </row>
     <row r="46" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="26"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="34"/>
       <c r="I46" s="17"/>
       <c r="J46" s="18"/>
       <c r="K46" s="18"/>
@@ -2899,17 +2902,17 @@
       <c r="A47" s="10">
         <v>19</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22" t="s">
+      <c r="D47" s="55"/>
+      <c r="E47" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="56" t="s">
         <v>23</v>
       </c>
       <c r="I47" s="17"/>
@@ -2933,14 +2936,14 @@
       <c r="AA47" s="5"/>
     </row>
     <row r="48" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="33"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="37"/>
       <c r="I48" s="17"/>
       <c r="J48" s="18"/>
       <c r="K48" s="18"/>
@@ -2965,17 +2968,17 @@
       <c r="A49" s="10">
         <v>20</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22" t="s">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="25" t="s">
         <v>58</v>
       </c>
       <c r="I49" s="17"/>
@@ -3014,6 +3017,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="B40:F40"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="B38:F38"/>
@@ -3026,21 +3044,6 @@
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
